--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H2">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>0.5234503856633335</v>
+        <v>0.8390955694448889</v>
       </c>
       <c r="R2">
-        <v>4.71105347097</v>
+        <v>7.551860125004001</v>
       </c>
       <c r="S2">
-        <v>0.2672366697037851</v>
+        <v>0.278031079723278</v>
       </c>
       <c r="T2">
-        <v>0.267236669703785</v>
+        <v>0.278031079723278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H3">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.06781438589333334</v>
+        <v>0.1234145288942222</v>
       </c>
       <c r="R3">
-        <v>0.6103294730400001</v>
+        <v>1.110730760048</v>
       </c>
       <c r="S3">
-        <v>0.03462121939441563</v>
+        <v>0.0408929280185574</v>
       </c>
       <c r="T3">
-        <v>0.03462121939441563</v>
+        <v>0.04089292801855743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H4">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.04291319001333335</v>
+        <v>0.08701295486866667</v>
       </c>
       <c r="R4">
-        <v>0.3862187101200001</v>
+        <v>0.783116593818</v>
       </c>
       <c r="S4">
-        <v>0.02190843353949646</v>
+        <v>0.02883140690166303</v>
       </c>
       <c r="T4">
-        <v>0.02190843353949646</v>
+        <v>0.02883140690166305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07524966666666666</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H5">
-        <v>0.225749</v>
+        <v>0.545038</v>
       </c>
       <c r="I5">
-        <v>0.2440479600959548</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J5">
-        <v>0.2440479600959548</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>0.3945654316107777</v>
+        <v>0.02027910774644445</v>
       </c>
       <c r="R5">
-        <v>3.551088884497</v>
+        <v>0.182511969718</v>
       </c>
       <c r="S5">
-        <v>0.2014371463119295</v>
+        <v>0.006719404115431873</v>
       </c>
       <c r="T5">
-        <v>0.2014371463119295</v>
+        <v>0.006719404115431877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H6">
         <v>0.225749</v>
       </c>
       <c r="I6">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J6">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>0.05111699823377776</v>
+        <v>0.3475445486491112</v>
       </c>
       <c r="R6">
-        <v>0.4600529841039999</v>
+        <v>3.127900937842</v>
       </c>
       <c r="S6">
-        <v>0.0260967166084675</v>
+        <v>0.115157545375644</v>
       </c>
       <c r="T6">
-        <v>0.0260967166084675</v>
+        <v>0.115157545375644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,51 +847,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H7">
         <v>0.225749</v>
       </c>
       <c r="I7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>0.03234702237911111</v>
+        <v>0.05111699823377778</v>
       </c>
       <c r="R7">
-        <v>0.291123201412</v>
+        <v>0.460052984104</v>
       </c>
       <c r="S7">
-        <v>0.01651409717555773</v>
+        <v>0.01693742015650527</v>
       </c>
       <c r="T7">
-        <v>0.01651409717555773</v>
+        <v>0.01693742015650527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.13326</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H8">
-        <v>0.39978</v>
+        <v>0.225749</v>
       </c>
       <c r="I8">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J8">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>0.6987378382600001</v>
+        <v>0.03603984960433334</v>
       </c>
       <c r="R8">
-        <v>6.28864054434</v>
+        <v>0.324358646439</v>
       </c>
       <c r="S8">
-        <v>0.3567260202817429</v>
+        <v>0.01194166512544727</v>
       </c>
       <c r="T8">
-        <v>0.3567260202817429</v>
+        <v>0.01194166512544727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.13326</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H9">
-        <v>0.39978</v>
+        <v>0.225749</v>
       </c>
       <c r="I9">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J9">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.09052334032000001</v>
+        <v>0.008399392876555556</v>
       </c>
       <c r="R9">
-        <v>0.81471006288</v>
+        <v>0.075594535889</v>
       </c>
       <c r="S9">
-        <v>0.04621480212861692</v>
+        <v>0.00278310642497336</v>
       </c>
       <c r="T9">
-        <v>0.04621480212861692</v>
+        <v>0.002783106424973361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H10">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I10">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J10">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.05728349896000001</v>
+        <v>1.180511298705333</v>
       </c>
       <c r="R10">
-        <v>0.5155514906400001</v>
+        <v>10.624601688348</v>
       </c>
       <c r="S10">
-        <v>0.02924489485598816</v>
+        <v>0.3911578644393379</v>
       </c>
       <c r="T10">
-        <v>0.02924489485598816</v>
+        <v>0.391157864439338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255602</v>
+      </c>
+      <c r="H11">
+        <v>0.766806</v>
+      </c>
+      <c r="I11">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J11">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.037896</v>
+      </c>
+      <c r="O11">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P11">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q11">
+        <v>0.1736300977973333</v>
+      </c>
+      <c r="R11">
+        <v>1.562670880176</v>
+      </c>
+      <c r="S11">
+        <v>0.05753166304404084</v>
+      </c>
+      <c r="T11">
+        <v>0.05753166304404086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.255602</v>
+      </c>
+      <c r="H12">
+        <v>0.766806</v>
+      </c>
+      <c r="I12">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J12">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.478937</v>
+      </c>
+      <c r="N12">
+        <v>1.436811</v>
+      </c>
+      <c r="O12">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P12">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q12">
+        <v>0.122417255074</v>
+      </c>
+      <c r="R12">
+        <v>1.101755295666</v>
+      </c>
+      <c r="S12">
+        <v>0.04056248518568728</v>
+      </c>
+      <c r="T12">
+        <v>0.04056248518568729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.255602</v>
+      </c>
+      <c r="H13">
+        <v>0.766806</v>
+      </c>
+      <c r="I13">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J13">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.02853038044066667</v>
+      </c>
+      <c r="R13">
+        <v>0.256773423966</v>
+      </c>
+      <c r="S13">
+        <v>0.009453431489433495</v>
+      </c>
+      <c r="T13">
+        <v>0.009453431489433499</v>
       </c>
     </row>
   </sheetData>
